--- a/Process Automation/UrlsAndOtherDetails.xlsx
+++ b/Process Automation/UrlsAndOtherDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AF8C0D-02AD-427D-AC87-7275A59805E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E26EF-E639-44A0-921D-0FEC7C152A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object Repo" sheetId="1" r:id="rId1"/>
@@ -87,12 +87,6 @@
     <t>Capario URL</t>
   </si>
   <si>
-    <t>//span[text()='Rejections']/parent::a</t>
-  </si>
-  <si>
-    <t>Capario Rejection Menu</t>
-  </si>
-  <si>
     <t>//li[@id='PRV_DEN_ALLREJ']/a[text()='Find All Rejected Claims']</t>
   </si>
   <si>
@@ -493,6 +487,12 @@
   </si>
   <si>
     <t>//a[text()='New Search']</t>
+  </si>
+  <si>
+    <t>//div[@class='tabBody']//div[@class='pagegrid_container']/table/tbody/tr[contains(@class,'row')]/td[2]/a"</t>
+  </si>
+  <si>
+    <t>Health First all Claims in search</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,178 +946,178 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1142,198 +1142,198 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,13 +1341,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -1355,13 +1355,13 @@
         <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,13 +1369,13 @@
         <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,13 +1383,13 @@
         <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,13 +1397,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,13 +1425,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,21 +1439,21 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1464,80 +1464,80 @@
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -1576,276 +1576,276 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -1863,7 +1863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1888,35 +1888,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1954,35 +1954,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Process Automation/UrlsAndOtherDetails.xlsx
+++ b/Process Automation/UrlsAndOtherDetails.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E26EF-E639-44A0-921D-0FEC7C152A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14E9A4-3A16-4A73-A918-E4329A34089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,17 +12,27 @@
     <sheet name="Attributes &amp; Values" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>S.no</t>
   </si>
@@ -87,30 +97,6 @@
     <t>Capario URL</t>
   </si>
   <si>
-    <t>//li[@id='PRV_DEN_ALLREJ']/a[text()='Find All Rejected Claims']</t>
-  </si>
-  <si>
-    <t>Capario Find All Claims</t>
-  </si>
-  <si>
-    <t>//table[@id='simpleSearch']//td[normalize-space(text())='CH TRACE ID:']/child::input[1]</t>
-  </si>
-  <si>
-    <t>Capario TraceID Box</t>
-  </si>
-  <si>
-    <t>//input[@id='search']</t>
-  </si>
-  <si>
-    <t>Capario Search Button</t>
-  </si>
-  <si>
-    <t>//tbody[@id='data_tbody']/tr/td[6]</t>
-  </si>
-  <si>
-    <t>Capario Status</t>
-  </si>
-  <si>
     <t>//input[@onclick='updateClientStatus();']</t>
   </si>
   <si>
@@ -318,12 +304,6 @@
     <t>https://hfproviderportal.org/</t>
   </si>
   <si>
-    <t>stellacl</t>
-  </si>
-  <si>
-    <t>Supreme1!</t>
-  </si>
-  <si>
     <t>Health First</t>
   </si>
   <si>
@@ -493,6 +473,33 @@
   </si>
   <si>
     <t>Health First all Claims in search</t>
+  </si>
+  <si>
+    <t>//i[contains(text(),'Page')]</t>
+  </si>
+  <si>
+    <t>Health First Page</t>
+  </si>
+  <si>
+    <t>InfinitePC</t>
+  </si>
+  <si>
+    <t>Mazel680@</t>
+  </si>
+  <si>
+    <t>Health First Next Page</t>
+  </si>
+  <si>
+    <t>//span[text()='No claims found.']</t>
+  </si>
+  <si>
+    <t>Health First No Claims Found</t>
+  </si>
+  <si>
+    <t>//a[img[@alt='Next Page']]/img</t>
+  </si>
+  <si>
+    <t>Health First New Link</t>
   </si>
 </sst>
 </file>
@@ -889,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -917,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -946,178 +953,178 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1128,10 +1135,10 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1142,254 +1149,254 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,13 +1418,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,13 +1432,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,21 +1446,21 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1464,80 +1471,80 @@
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -1548,10 +1555,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1562,10 +1569,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -1576,276 +1583,276 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
@@ -1864,7 +1871,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,35 +1895,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1954,35 +1961,35 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Process Automation/UrlsAndOtherDetails.xlsx
+++ b/Process Automation/UrlsAndOtherDetails.xlsx
@@ -1,38 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F14E9A4-3A16-4A73-A918-E4329A34089A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419C619C-D670-4F10-A9E6-089293A58A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object Repo" sheetId="1" r:id="rId1"/>
     <sheet name="Attributes &amp; Values" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="199">
   <si>
     <t>S.no</t>
   </si>
@@ -97,6 +87,30 @@
     <t>Capario URL</t>
   </si>
   <si>
+    <t>//li[@id='PRV_DEN_ALLREJ']/a[text()='Find All Rejected Claims']</t>
+  </si>
+  <si>
+    <t>Capario Find All Claims</t>
+  </si>
+  <si>
+    <t>//table[@id='simpleSearch']//td[normalize-space(text())='CH TRACE ID:']/child::input[1]</t>
+  </si>
+  <si>
+    <t>Capario TraceID Box</t>
+  </si>
+  <si>
+    <t>//input[@id='search']</t>
+  </si>
+  <si>
+    <t>Capario Search Button</t>
+  </si>
+  <si>
+    <t>//tbody[@id='data_tbody']/tr/td[6]</t>
+  </si>
+  <si>
+    <t>Capario Status</t>
+  </si>
+  <si>
     <t>//input[@onclick='updateClientStatus();']</t>
   </si>
   <si>
@@ -304,6 +318,12 @@
     <t>https://hfproviderportal.org/</t>
   </si>
   <si>
+    <t>stellacl</t>
+  </si>
+  <si>
+    <t>Supreme1!</t>
+  </si>
+  <si>
     <t>Health First</t>
   </si>
   <si>
@@ -469,37 +489,136 @@
     <t>//a[text()='New Search']</t>
   </si>
   <si>
-    <t>//div[@class='tabBody']//div[@class='pagegrid_container']/table/tbody/tr[contains(@class,'row')]/td[2]/a"</t>
-  </si>
-  <si>
-    <t>Health First all Claims in search</t>
-  </si>
-  <si>
-    <t>//i[contains(text(),'Page')]</t>
-  </si>
-  <si>
-    <t>Health First Page</t>
-  </si>
-  <si>
-    <t>InfinitePC</t>
-  </si>
-  <si>
-    <t>Mazel680@</t>
-  </si>
-  <si>
-    <t>Health First Next Page</t>
-  </si>
-  <si>
-    <t>//span[text()='No claims found.']</t>
-  </si>
-  <si>
-    <t>Health First No Claims Found</t>
-  </si>
-  <si>
-    <t>//a[img[@alt='Next Page']]/img</t>
-  </si>
-  <si>
-    <t>Health First New Link</t>
+    <t>//table[@class='dataTable']//tbody[tr[th[h3[text()='Overview']]]]//tr[4]/td[3]//span[normalize-space(text())='Check/EFT/VCard #:']</t>
+  </si>
+  <si>
+    <t>Centers</t>
+  </si>
+  <si>
+    <t>Centers Lab</t>
+  </si>
+  <si>
+    <t>Centers Lab Username</t>
+  </si>
+  <si>
+    <t>Centers Lab Password</t>
+  </si>
+  <si>
+    <t>Centers Lab URL</t>
+  </si>
+  <si>
+    <t>Centers Lab Username Box</t>
+  </si>
+  <si>
+    <t>Centers Lab Password Box</t>
+  </si>
+  <si>
+    <t>Centers Lab  Login Button</t>
+  </si>
+  <si>
+    <t>Centers Lab Closable Tab</t>
+  </si>
+  <si>
+    <t>Centers Lab Close all Tabs</t>
+  </si>
+  <si>
+    <t>//div[@qtip='Close All Tabs']</t>
+  </si>
+  <si>
+    <t>Centers Lab Close Tab</t>
+  </si>
+  <si>
+    <t>//div[label[text()='Billing tags']]/input[1]</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Chechbox</t>
+  </si>
+  <si>
+    <t>//div[label[text()='Accession No:']]/div/input</t>
+  </si>
+  <si>
+    <t>Centers Lab Accession Number Box</t>
+  </si>
+  <si>
+    <t>//button[text()='Billing']</t>
+  </si>
+  <si>
+    <t>//a[span[text()='Billing']]</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing Option</t>
+  </si>
+  <si>
+    <t>Centers Lab Billing DropDown</t>
+  </si>
+  <si>
+    <t>//button[normalize-space(@class)='x-btn-text icon-find']</t>
+  </si>
+  <si>
+    <t>Centers Lab Find Button</t>
+  </si>
+  <si>
+    <t>//table[@class='x-grid3-row-table']</t>
+  </si>
+  <si>
+    <t>Centers Lab First Record</t>
+  </si>
+  <si>
+    <t>//div[div[normalize-space(text())='Notes:']]/div[2]/span[2]</t>
+  </si>
+  <si>
+    <t>Centers First Notes</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'row-checker')]</t>
+  </si>
+  <si>
+    <t>Centers Lab Check Box</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'Service')]</t>
+  </si>
+  <si>
+    <t>Centers Lab Service Edit  button</t>
+  </si>
+  <si>
+    <t>//a[span[contains(text(),'Apply tags')]]</t>
+  </si>
+  <si>
+    <t>Centers Lab Tag Edit</t>
+  </si>
+  <si>
+    <t>Centers Lab Tags</t>
+  </si>
+  <si>
+    <t>//label[(text())='Remove existing (Selected)']</t>
+  </si>
+  <si>
+    <t>Centers Lab Remove Tags</t>
+  </si>
+  <si>
+    <t>//label[(text())='Tags:']/following::input[2]</t>
+  </si>
+  <si>
+    <t>Centers Lab Tags Edit</t>
+  </si>
+  <si>
+    <t>//button[(text())='Apply']</t>
+  </si>
+  <si>
+    <t>Centers Lab Tag Apply</t>
+  </si>
+  <si>
+    <t>//div[span[normalize-space(text())='Tags:']]</t>
+  </si>
+  <si>
+    <t>https://triangle.emsow.com/</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>7532</t>
   </si>
 </sst>
 </file>
@@ -558,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -589,6 +708,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -870,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +1034,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -922,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,178 +1083,178 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1135,10 +1265,10 @@
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -1149,254 +1279,254 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,13 +1534,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,13 +1548,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,13 +1562,13 @@
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,21 +1576,21 @@
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -1471,80 +1601,80 @@
     </row>
     <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>5</v>
@@ -1555,10 +1685,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>5</v>
@@ -1569,10 +1699,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>5</v>
@@ -1583,282 +1713,574 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,35 +2317,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1961,35 +2383,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1997,6 +2452,8 @@
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="C9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="C10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="C12" r:id="rId4" display="Mazel672@" xr:uid="{0D684DFD-AD5A-4DCD-A88B-D08C74111911}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{9898074E-98DC-445E-94DC-C66EFF890203}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Process Automation/UrlsAndOtherDetails.xlsx
+++ b/Process Automation/UrlsAndOtherDetails.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419C619C-D670-4F10-A9E6-089293A58A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80A117-1456-487F-8D65-038BB5AAA146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object Repo" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="203">
   <si>
     <t>S.no</t>
   </si>
@@ -619,6 +619,18 @@
   </si>
   <si>
     <t>7532</t>
+  </si>
+  <si>
+    <t>//div[label[text()='Service ID:']]/div/input</t>
+  </si>
+  <si>
+    <t>Centers Lab Service ID Box</t>
+  </si>
+  <si>
+    <t>//div[label[text()='by service']]/input[1]</t>
+  </si>
+  <si>
+    <t>Centers Lab by service Check Box</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2283,6 +2295,34 @@
         <v>193</v>
       </c>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2292,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
